--- a/Consumer/AutoZone.xlsx
+++ b/Consumer/AutoZone.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C334652D-B50E-844D-A3FC-B6965A6DCC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E35431F-544C-DC4A-82FE-5BD9D3CCCBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$AH$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$AH$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AH$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AH$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AH$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$AH$106</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -976,18 +962,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1025,12 +999,6 @@
     <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1048,6 +1016,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2499,13 +2485,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>2610.0500000000002</v>
-    <v>1703.3203000000001</v>
-    <v>0.67630000000000001</v>
-    <v>-9.49</v>
-    <v>-3.7790000000000002E-3</v>
-    <v>-0.05</v>
-    <v>-1.9980000000000002E-5</v>
+    <v>2750</v>
+    <v>1780.4</v>
+    <v>0.67959999999999998</v>
+    <v>-39.79</v>
+    <v>-1.6152E-2</v>
+    <v>1.38</v>
+    <v>5.6939999999999996E-4</v>
     <v>USD</v>
     <v>AutoZone, Inc. is a retailer and distributor of automotive replacement parts and accessories in the Americas. The Company's Auto Parts Stores segment is the retailer and distributor of automotive parts and accessories through the Company's, stores in the United States, Mexico, and Brazil. Each store carries an extensive product line for cars, sport utility vehicles, vans and light trucks, including new and remanufactured automotive hard parts, maintenance items, accessories, and non-automotive products. Its other segments include ALLDATA, which produces, sells and maintains diagnostic, repair and shop management software used in the automotive repair industry and E-commerce, which includes direct sales to customers through www.autozone.com for sales that are not fulfilled by local stores. The Company has approximately 6,168 stores in the United States, 703 in Mexico, and 72 in Brazil for a total store count of 6,943.</v>
     <v>69440</v>
@@ -2513,25 +2499,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>123 S Front St, MEMPHIS, TN, 38103 US</v>
-    <v>2513.87</v>
+    <v>2474.7399999999998</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45020.958333356248</v>
+    <v>45070.998972221874</v>
     <v>0</v>
-    <v>2494.9949999999999</v>
-    <v>46031965285</v>
+    <v>2421.8200000000002</v>
+    <v>44589033674</v>
     <v>AUTOZONE, INC.</v>
     <v>AUTOZONE, INC.</v>
-    <v>2502.42</v>
-    <v>20.706700000000001</v>
-    <v>2511.54</v>
-    <v>2502.0500000000002</v>
-    <v>2502</v>
+    <v>2463.41</v>
+    <v>19.9818</v>
+    <v>2463.41</v>
+    <v>2423.62</v>
+    <v>2425</v>
     <v>18397700</v>
     <v>AZO</v>
     <v>AUTOZONE, INC. (XNYS:AZO)</v>
-    <v>120747</v>
-    <v>161172</v>
+    <v>269726</v>
+    <v>135442</v>
     <v>1991</v>
   </rv>
   <rv s="2">
@@ -2696,9 +2682,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3119,10 +3105,10 @@
   <dimension ref="A1:AQ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AL24" sqref="AL24"/>
+      <selection pane="bottomRight" activeCell="AI88" sqref="AI88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3470,19 +3456,19 @@
         <v>16252230000</v>
       </c>
       <c r="AI3" s="28">
-        <v>20678000000</v>
+        <v>17494000000</v>
       </c>
       <c r="AJ3" s="28">
-        <v>21734000000</v>
+        <v>18415000000</v>
       </c>
       <c r="AK3" s="28">
-        <v>23201000000</v>
+        <v>19241000000</v>
       </c>
       <c r="AL3" s="28">
-        <v>24617000000</v>
+        <v>19904000000</v>
       </c>
       <c r="AM3" s="28">
-        <v>25905000000</v>
+        <v>20754000000</v>
       </c>
       <c r="AN3" s="18" t="s">
         <v>109</v>
@@ -3515,7 +3501,7 @@
         <v>0.21400778210116722</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:AP4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:AM4" si="0">(F3/E3)-1</f>
         <v>0.23931623931623935</v>
       </c>
       <c r="G4" s="15">
@@ -3632,23 +3618,23 @@
       </c>
       <c r="AI4" s="16">
         <f t="shared" si="0"/>
-        <v>0.27231770655473131</v>
+        <v>7.6406130112605997E-2</v>
       </c>
       <c r="AJ4" s="16">
         <f t="shared" si="0"/>
-        <v>5.1068768739723325E-2</v>
+        <v>5.2646621698868135E-2</v>
       </c>
       <c r="AK4" s="16">
         <f t="shared" si="0"/>
-        <v>6.7497929511364685E-2</v>
+        <v>4.4854737985338122E-2</v>
       </c>
       <c r="AL4" s="16">
         <f t="shared" si="0"/>
-        <v>6.1031852075341675E-2</v>
+        <v>3.4457668520347262E-2</v>
       </c>
       <c r="AM4" s="16">
         <f t="shared" si="0"/>
-        <v>5.2321566397205199E-2</v>
+        <v>4.2704983922829509E-2</v>
       </c>
       <c r="AN4" s="17">
         <f>(AH4+AG4+AF4)/3</f>
@@ -4120,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:AK9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:AH9" si="1">C8/C3</f>
         <v>0</v>
       </c>
       <c r="D9" s="15">
@@ -4609,7 +4595,7 @@
         <v>0.30608902783980946</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:AK13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:AH13" si="2">C12/C3</f>
         <v>0.30244498777506112</v>
       </c>
       <c r="D13" s="15">
@@ -5082,15 +5068,15 @@
       </c>
       <c r="AO16" s="30">
         <f>AP101/AH3</f>
-        <v>2.8323476399854051</v>
+        <v>2.7435640323820176</v>
       </c>
       <c r="AP16" s="30">
         <f>AP101/AH28</f>
-        <v>18.946283132971462</v>
+        <v>18.352387333079793</v>
       </c>
       <c r="AQ16" s="31">
         <f>AP101/AH106</f>
-        <v>18.131786932829776</v>
+        <v>17.563422571948962</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -5430,7 +5416,7 @@
         <v>0.39170896785109988</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AK20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AH20" si="3">(F19/E19)-1</f>
         <v>0.37446808510638308</v>
       </c>
       <c r="G20" s="15">
@@ -6396,7 +6382,7 @@
         <v>0.37282780410742489</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AK29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AH29" si="4">(F28/E28)-1</f>
         <v>0.33947065592635206</v>
       </c>
       <c r="G29" s="15">
@@ -7042,7 +7028,7 @@
         <v>8.7267521850958152E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AK35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AH35" si="5">(D34-C34)/C34</f>
         <v>0.10406976776017442</v>
       </c>
       <c r="E35" s="22">
@@ -11747,7 +11733,7 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AK80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AH80" si="6">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
@@ -12190,10 +12176,10 @@
       <c r="AH83" s="1">
         <v>-990686000</v>
       </c>
-      <c r="AO83" s="33" t="s">
+      <c r="AO83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AP83" s="34"/>
+      <c r="AP83" s="63"/>
     </row>
     <row r="84" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12298,10 +12284,10 @@
       <c r="AH84" s="1">
         <v>1224692000</v>
       </c>
-      <c r="AO84" s="35" t="s">
+      <c r="AO84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AP84" s="36"/>
+      <c r="AP84" s="65"/>
     </row>
     <row r="85" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -12739,10 +12725,10 @@
       <c r="AH88" s="1">
         <v>0</v>
       </c>
-      <c r="AO88" s="37" t="s">
+      <c r="AO88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="AP88" s="38">
+      <c r="AP88" s="34">
         <f>AP85/(AP86+AP87)</f>
         <v>2.1264907330824177E-2</v>
       </c>
@@ -12752,7 +12738,7 @@
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:AK89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:AH89" si="7">(-1*B88)/B3</f>
         <v>3.8558880452582996E-2</v>
       </c>
       <c r="C89" s="15">
@@ -13105,10 +13091,10 @@
       <c r="AH91" s="1">
         <v>-87577000</v>
       </c>
-      <c r="AO91" s="37" t="s">
+      <c r="AO91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="AP91" s="38">
+      <c r="AP91" s="34">
         <f>AP89/AP90</f>
         <v>0.21093465571494963</v>
       </c>
@@ -13216,10 +13202,10 @@
       <c r="AH92" s="1">
         <v>53882000</v>
       </c>
-      <c r="AO92" s="39" t="s">
+      <c r="AO92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="AP92" s="40">
+      <c r="AP92" s="36">
         <f>AP88*(1-AP91)</f>
         <v>1.677940142418647E-2</v>
       </c>
@@ -13327,10 +13313,10 @@
       <c r="AH93" s="1">
         <v>-614404000</v>
       </c>
-      <c r="AO93" s="35" t="s">
+      <c r="AO93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AP93" s="36"/>
+      <c r="AP93" s="65"/>
     </row>
     <row r="94" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -13438,7 +13424,7 @@
       <c r="AO94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AP94" s="41">
+      <c r="AP94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -13545,12 +13531,12 @@
       <c r="AH95" s="1">
         <v>-567182000</v>
       </c>
-      <c r="AO95" s="42" t="s">
+      <c r="AO95" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="AP95" s="43" cm="1">
+      <c r="AP95" s="39" cm="1">
         <f t="array" ref="AP95">_FV(A1,"Beta")</f>
-        <v>0.67630000000000001</v>
+        <v>0.67959999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -13659,7 +13645,7 @@
       <c r="AO96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AP96" s="41">
+      <c r="AP96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -13766,12 +13752,12 @@
       <c r="AH97" s="1">
         <v>-4359991000</v>
       </c>
-      <c r="AO97" s="39" t="s">
+      <c r="AO97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="AP97" s="40">
+      <c r="AP97" s="36">
         <f>(AP94)+((AP95)*(AP96-AP94))</f>
-        <v>7.0064715E-2</v>
+        <v>7.0206779999999996E-2</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -13877,10 +13863,10 @@
       <c r="AH98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AO98" s="35" t="s">
+      <c r="AO98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AP98" s="36"/>
+      <c r="AP98" s="65"/>
     </row>
     <row r="99" spans="1:42" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -14096,12 +14082,12 @@
       <c r="AH100" s="10">
         <v>-3470497000</v>
       </c>
-      <c r="AO100" s="37" t="s">
+      <c r="AO100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AP100" s="38">
+      <c r="AP100" s="34">
         <f>AP99/AP103</f>
-        <v>0.16802154773980388</v>
+        <v>0.17252079392739547</v>
       </c>
     </row>
     <row r="101" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14207,12 +14193,12 @@
       <c r="AH101" s="1">
         <v>506000</v>
       </c>
-      <c r="AO101" s="42" t="s">
+      <c r="AO101" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="AP101" s="44" cm="1">
+      <c r="AP101" s="40" cm="1">
         <f t="array" ref="AP101">_FV(A1,"Market cap",TRUE)</f>
-        <v>46031965285</v>
+        <v>44589033674</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14318,12 +14304,12 @@
       <c r="AH102" s="10">
         <v>-906955000</v>
       </c>
-      <c r="AO102" s="37" t="s">
+      <c r="AO102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="AP102" s="38">
+      <c r="AP102" s="34">
         <f>AP101/AP103</f>
-        <v>0.83197845226019618</v>
+        <v>0.8274792060726045</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14429,12 +14415,12 @@
       <c r="AH103" s="1">
         <v>1171335000</v>
       </c>
-      <c r="AO103" s="39" t="s">
+      <c r="AO103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="AP103" s="45">
+      <c r="AP103" s="41">
         <f>AP99+AP101</f>
-        <v>55328314285</v>
+        <v>53885382674</v>
       </c>
     </row>
     <row r="104" spans="1:42" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14540,10 +14526,10 @@
       <c r="AH104" s="11">
         <v>264380000</v>
       </c>
-      <c r="AO104" s="35" t="s">
+      <c r="AO104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AP104" s="36"/>
+      <c r="AP104" s="65"/>
     </row>
     <row r="105" spans="1:42" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -14571,7 +14557,7 @@
         <v>0.74496644295302006</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:AK105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:AH105" si="8">(H106/G106)-1</f>
         <v>0.46153846153846145</v>
       </c>
       <c r="I105" s="15">
@@ -14689,7 +14675,7 @@
       </c>
       <c r="AP105" s="26">
         <f>(AP100*AP92)+(AP102*AP97)</f>
-        <v>6.1111634141191029E-2</v>
+        <v>6.098944623064112E-2</v>
       </c>
     </row>
     <row r="106" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14795,35 +14781,35 @@
       <c r="AH106" s="1">
         <v>2538744000</v>
       </c>
-      <c r="AI106" s="46">
+      <c r="AI106" s="42">
         <f>AH106*(1+$AP$106)</f>
-        <v>2794770149.6842027</v>
-      </c>
-      <c r="AJ106" s="46">
+        <v>2666224563.4381833</v>
+      </c>
+      <c r="AJ106" s="42">
         <f t="shared" ref="AJ106:AM106" si="9">AI106*(1+$AP$106)</f>
-        <v>3076615913.0522261</v>
-      </c>
-      <c r="AK106" s="46">
+        <v>2800106439.5154185</v>
+      </c>
+      <c r="AK106" s="42">
         <f t="shared" si="9"/>
-        <v>3386885135.2644334</v>
-      </c>
-      <c r="AL106" s="46">
+        <v>2940711063.9266672</v>
+      </c>
+      <c r="AL106" s="42">
         <f t="shared" si="9"/>
-        <v>3728444252.9243522</v>
-      </c>
-      <c r="AM106" s="46">
+        <v>3088376012.9480224</v>
+      </c>
+      <c r="AM106" s="42">
         <f t="shared" si="9"/>
-        <v>4104448775.7862139</v>
-      </c>
-      <c r="AN106" s="47" t="s">
+        <v>3243455813.9203081</v>
+      </c>
+      <c r="AN106" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AO106" s="48" t="s">
+      <c r="AO106" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="AP106" s="49">
+      <c r="AP106" s="45">
         <f>(SUM(AI4:AM4)/5)</f>
-        <v>0.10084756465567324</v>
+        <v>5.0214028447997806E-2</v>
       </c>
     </row>
     <row r="107" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14861,151 +14847,151 @@
       <c r="AF107" s="13"/>
       <c r="AG107" s="13"/>
       <c r="AH107" s="13"/>
-      <c r="AI107" s="47"/>
-      <c r="AJ107" s="47"/>
-      <c r="AK107" s="47"/>
-      <c r="AL107" s="47"/>
-      <c r="AM107" s="50">
+      <c r="AI107" s="43"/>
+      <c r="AJ107" s="43"/>
+      <c r="AK107" s="43"/>
+      <c r="AL107" s="43"/>
+      <c r="AM107" s="46">
         <f>AM106*(1+AP107)/(AP108-AP107)</f>
-        <v>116501512469.13669</v>
-      </c>
-      <c r="AN107" s="51" t="s">
+        <v>92375475520.315933</v>
+      </c>
+      <c r="AN107" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="AO107" s="52" t="s">
+      <c r="AO107" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="AP107" s="53">
+      <c r="AP107" s="49">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="AI108" s="50">
+      <c r="AI108" s="46">
         <f t="shared" ref="AI108:AK108" si="10">AI107+AI106</f>
-        <v>2794770149.6842027</v>
-      </c>
-      <c r="AJ108" s="50">
+        <v>2666224563.4381833</v>
+      </c>
+      <c r="AJ108" s="46">
         <f t="shared" si="10"/>
-        <v>3076615913.0522261</v>
-      </c>
-      <c r="AK108" s="50">
+        <v>2800106439.5154185</v>
+      </c>
+      <c r="AK108" s="46">
         <f t="shared" si="10"/>
-        <v>3386885135.2644334</v>
-      </c>
-      <c r="AL108" s="50">
+        <v>2940711063.9266672</v>
+      </c>
+      <c r="AL108" s="46">
         <f>AL107+AL106</f>
-        <v>3728444252.9243522</v>
-      </c>
-      <c r="AM108" s="50">
+        <v>3088376012.9480224</v>
+      </c>
+      <c r="AM108" s="46">
         <f>AM107+AM106</f>
-        <v>120605961244.9229</v>
-      </c>
-      <c r="AN108" s="51" t="s">
+        <v>95618931334.236237</v>
+      </c>
+      <c r="AN108" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="AO108" s="54" t="s">
+      <c r="AO108" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="AP108" s="55">
+      <c r="AP108" s="51">
         <f>AP105</f>
-        <v>6.1111634141191029E-2</v>
+        <v>6.098944623064112E-2</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.25">
-      <c r="AI109" s="56" t="s">
+      <c r="AI109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AJ109" s="57"/>
+      <c r="AJ109" s="61"/>
     </row>
     <row r="110" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI110" s="58" t="s">
+      <c r="AI110" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="AJ110" s="44">
+      <c r="AJ110" s="40">
         <f>NPV(AP108,AI108,AJ108,AK108,AL108,AM108)</f>
-        <v>100794647829.61165</v>
+        <v>81019225145.036743</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI111" s="58" t="s">
+      <c r="AI111" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="AJ111" s="44">
+      <c r="AJ111" s="40">
         <f>AH40</f>
         <v>264380000</v>
       </c>
     </row>
     <row r="112" spans="1:42" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI112" s="58" t="s">
+      <c r="AI112" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="AJ112" s="44">
+      <c r="AJ112" s="40">
         <f>AP99</f>
         <v>9296349000</v>
       </c>
     </row>
     <row r="113" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI113" s="58" t="s">
+      <c r="AI113" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AJ113" s="44">
+      <c r="AJ113" s="40">
         <f>AJ110+AJ111-AJ112</f>
-        <v>91762678829.611649</v>
+        <v>71987256145.036743</v>
       </c>
     </row>
     <row r="114" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI114" s="58" t="s">
+      <c r="AI114" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="AJ114" s="59" cm="1">
-        <f t="array" ref="AJ114">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>18397700</v>
+      <c r="AJ114" s="53">
+        <f>AH34*(1+(AN16*5))</f>
+        <v>13971574.129405886</v>
       </c>
     </row>
     <row r="115" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI115" s="60" t="s">
+      <c r="AI115" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="AJ115" s="61">
+      <c r="AJ115" s="55">
         <f>AJ113/AJ114</f>
-        <v>4987.7255760019807</v>
+        <v>5152.4084171393124</v>
       </c>
     </row>
     <row r="116" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI116" s="58" t="s">
+      <c r="AI116" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="AJ116" s="62" cm="1">
+      <c r="AJ116" s="56" cm="1">
         <f t="array" ref="AJ116">_FV(A1,"Price")</f>
-        <v>2502.0500000000002</v>
+        <v>2423.62</v>
       </c>
     </row>
     <row r="117" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI117" s="63" t="s">
+      <c r="AI117" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="AJ117" s="64">
+      <c r="AJ117" s="58">
         <f>AJ115/AJ116-1</f>
-        <v>0.99345559681140672</v>
+        <v>1.1259143005666368</v>
       </c>
     </row>
     <row r="118" spans="35:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AI118" s="63" t="s">
+      <c r="AI118" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="AJ118" s="65" t="str">
+      <c r="AJ118" s="59" t="str">
         <f>IF(AJ115&gt;AJ116,"BUY","SELL")</f>
         <v>BUY</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AI109:AJ109"/>
     <mergeCell ref="AO83:AP83"/>
     <mergeCell ref="AO84:AP84"/>
     <mergeCell ref="AO93:AP93"/>
     <mergeCell ref="AO98:AP98"/>
     <mergeCell ref="AO104:AP104"/>
-    <mergeCell ref="AI109:AJ109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/AZO" display="ROIC.AI | AZO" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -15075,7 +15061,7 @@
     <hyperlink ref="AG74" r:id="rId65" tooltip="https://www.sec.gov/Archives/edgar/data/866787/000155837021013446/0001558370-21-013446-index.htm" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="AH36" r:id="rId66" tooltip="https://www.sec.gov/Archives/edgar/data/866787/000155837022015239/0001558370-22-015239-index.htm" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
     <hyperlink ref="AH74" r:id="rId67" tooltip="https://www.sec.gov/Archives/edgar/data/866787/000155837022015239/0001558370-22-015239-index.htm" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="AI1" r:id="rId68" display="https://finbox.com/NYSE:WM/explorer/revenue_proj" xr:uid="{78AAC5EA-D873-8C4F-AF87-5D3E1BF7F303}"/>
+    <hyperlink ref="AI1" r:id="rId68" display="https://finbox.com/NYSE:AZO/explorer/revenue_proj" xr:uid="{78AAC5EA-D873-8C4F-AF87-5D3E1BF7F303}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId69"/>

--- a/Consumer/AutoZone.xlsx
+++ b/Consumer/AutoZone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E35431F-544C-DC4A-82FE-5BD9D3CCCBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C297A20-3673-064B-B18A-390581AE0655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2486,12 +2486,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>2750</v>
-    <v>1780.4</v>
-    <v>0.67959999999999998</v>
-    <v>-39.79</v>
-    <v>-1.6152E-2</v>
-    <v>1.38</v>
-    <v>5.6939999999999996E-4</v>
+    <v>1959.58</v>
+    <v>0.67779999999999996</v>
+    <v>1.04</v>
+    <v>4.2279999999999998E-4</v>
+    <v>-5.43</v>
+    <v>-2.2070000000000002E-3</v>
     <v>USD</v>
     <v>AutoZone, Inc. is a retailer and distributor of automotive replacement parts and accessories in the Americas. The Company's Auto Parts Stores segment is the retailer and distributor of automotive parts and accessories through the Company's, stores in the United States, Mexico, and Brazil. Each store carries an extensive product line for cars, sport utility vehicles, vans and light trucks, including new and remanufactured automotive hard parts, maintenance items, accessories, and non-automotive products. Its other segments include ALLDATA, which produces, sells and maintains diagnostic, repair and shop management software used in the automotive repair industry and E-commerce, which includes direct sales to customers through www.autozone.com for sales that are not fulfilled by local stores. The Company has approximately 6,168 stores in the United States, 703 in Mexico, and 72 in Brazil for a total store count of 6,943.</v>
     <v>69440</v>
@@ -2499,25 +2499,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>123 S Front St, MEMPHIS, TN, 38103 US</v>
-    <v>2474.7399999999998</v>
+    <v>2471.4699999999998</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45070.998972221874</v>
+    <v>45072.958333356248</v>
     <v>0</v>
-    <v>2421.8200000000002</v>
-    <v>44589033674</v>
+    <v>2426.5700000000002</v>
+    <v>44847900000</v>
     <v>AUTOZONE, INC.</v>
     <v>AUTOZONE, INC.</v>
-    <v>2463.41</v>
-    <v>19.9818</v>
-    <v>2463.41</v>
-    <v>2423.62</v>
-    <v>2425</v>
-    <v>18397700</v>
+    <v>2461.15</v>
+    <v>19.462399999999999</v>
+    <v>2459.75</v>
+    <v>2460.79</v>
+    <v>2455.36</v>
+    <v>18225000</v>
     <v>AZO</v>
     <v>AUTOZONE, INC. (XNYS:AZO)</v>
-    <v>269726</v>
-    <v>135442</v>
+    <v>214810</v>
+    <v>146826</v>
     <v>1991</v>
   </rv>
   <rv s="2">
@@ -2682,9 +2682,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -3105,10 +3105,10 @@
   <dimension ref="A1:AQ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AF83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI88" sqref="AI88"/>
+      <selection pane="bottomRight" activeCell="AK101" sqref="AK101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5068,15 +5068,15 @@
       </c>
       <c r="AO16" s="30">
         <f>AP101/AH3</f>
-        <v>2.7435640323820176</v>
+        <v>2.7594920820096687</v>
       </c>
       <c r="AP16" s="30">
         <f>AP101/AH28</f>
-        <v>18.352387333079793</v>
+        <v>18.458934048511608</v>
       </c>
       <c r="AQ16" s="31">
         <f>AP101/AH106</f>
-        <v>17.563422571948962</v>
+        <v>17.665388869456709</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13536,7 +13536,7 @@
       </c>
       <c r="AP95" s="39" cm="1">
         <f t="array" ref="AP95">_FV(A1,"Beta")</f>
-        <v>0.67959999999999998</v>
+        <v>0.67779999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="AP97" s="36">
         <f>(AP94)+((AP95)*(AP96-AP94))</f>
-        <v>7.0206779999999996E-2</v>
+        <v>7.0129289999999997E-2</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14087,7 +14087,7 @@
       </c>
       <c r="AP100" s="34">
         <f>AP99/AP103</f>
-        <v>0.17252079392739547</v>
+        <v>0.17169596349928135</v>
       </c>
     </row>
     <row r="101" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14198,7 +14198,7 @@
       </c>
       <c r="AP101" s="40" cm="1">
         <f t="array" ref="AP101">_FV(A1,"Market cap",TRUE)</f>
-        <v>44589033674</v>
+        <v>44847900000</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14309,7 +14309,7 @@
       </c>
       <c r="AP102" s="34">
         <f>AP101/AP103</f>
-        <v>0.8274792060726045</v>
+        <v>0.82830403650071871</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14420,7 +14420,7 @@
       </c>
       <c r="AP103" s="41">
         <f>AP99+AP101</f>
-        <v>53885382674</v>
+        <v>54144249000</v>
       </c>
     </row>
     <row r="104" spans="1:42" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14675,7 +14675,7 @@
       </c>
       <c r="AP105" s="26">
         <f>(AP100*AP92)+(AP102*AP97)</f>
-        <v>6.098944623064112E-2</v>
+        <v>6.0969329478396395E-2</v>
       </c>
     </row>
     <row r="106" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14853,7 +14853,7 @@
       <c r="AL107" s="43"/>
       <c r="AM107" s="46">
         <f>AM106*(1+AP107)/(AP108-AP107)</f>
-        <v>92375475520.315933</v>
+        <v>92427138828.514297</v>
       </c>
       <c r="AN107" s="47" t="s">
         <v>148</v>
@@ -14884,7 +14884,7 @@
       </c>
       <c r="AM108" s="46">
         <f>AM107+AM106</f>
-        <v>95618931334.236237</v>
+        <v>95670594642.434601</v>
       </c>
       <c r="AN108" s="47" t="s">
         <v>144</v>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="AP108" s="51">
         <f>AP105</f>
-        <v>6.098944623064112E-2</v>
+        <v>6.0969329478396395E-2</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14909,7 +14909,7 @@
       </c>
       <c r="AJ110" s="40">
         <f>NPV(AP108,AI108,AJ108,AK108,AL108,AM108)</f>
-        <v>81019225145.036743</v>
+        <v>81064864461.176361</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14936,7 +14936,7 @@
       </c>
       <c r="AJ113" s="40">
         <f>AJ110+AJ111-AJ112</f>
-        <v>71987256145.036743</v>
+        <v>72032895461.176361</v>
       </c>
     </row>
     <row r="114" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14954,7 +14954,7 @@
       </c>
       <c r="AJ115" s="55">
         <f>AJ113/AJ114</f>
-        <v>5152.4084171393124</v>
+        <v>5155.6750008267982</v>
       </c>
     </row>
     <row r="116" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14963,7 +14963,7 @@
       </c>
       <c r="AJ116" s="56" cm="1">
         <f t="array" ref="AJ116">_FV(A1,"Price")</f>
-        <v>2423.62</v>
+        <v>2460.79</v>
       </c>
     </row>
     <row r="117" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14972,7 +14972,7 @@
       </c>
       <c r="AJ117" s="58">
         <f>AJ115/AJ116-1</f>
-        <v>1.1259143005666368</v>
+        <v>1.0951300195574585</v>
       </c>
     </row>
     <row r="118" spans="35:36" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/AutoZone.xlsx
+++ b/Consumer/AutoZone.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C297A20-3673-064B-B18A-390581AE0655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A01EA88-B749-B649-8840-A58DC7DE0E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2486,12 +2486,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>2750</v>
-    <v>1959.58</v>
-    <v>0.67779999999999996</v>
-    <v>1.04</v>
-    <v>4.2279999999999998E-4</v>
-    <v>-5.43</v>
-    <v>-2.2070000000000002E-3</v>
+    <v>2050.21</v>
+    <v>0.67589999999999995</v>
+    <v>-20.84</v>
+    <v>-8.5459999999999998E-3</v>
     <v>USD</v>
     <v>AutoZone, Inc. is a retailer and distributor of automotive replacement parts and accessories in the Americas. The Company's Auto Parts Stores segment is the retailer and distributor of automotive parts and accessories through the Company's, stores in the United States, Mexico, and Brazil. Each store carries an extensive product line for cars, sport utility vehicles, vans and light trucks, including new and remanufactured automotive hard parts, maintenance items, accessories, and non-automotive products. Its other segments include ALLDATA, which produces, sells and maintains diagnostic, repair and shop management software used in the automotive repair industry and E-commerce, which includes direct sales to customers through www.autozone.com for sales that are not fulfilled by local stores. The Company has approximately 6,168 stores in the United States, 703 in Mexico, and 72 in Brazil for a total store count of 6,943.</v>
     <v>69440</v>
@@ -2499,25 +2497,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>123 S Front St, MEMPHIS, TN, 38103 US</v>
-    <v>2471.4699999999998</v>
+    <v>2438.37</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45072.958333356248</v>
+    <v>45100.774821955471</v>
     <v>0</v>
-    <v>2426.5700000000002</v>
-    <v>44847900000</v>
+    <v>2415.37</v>
+    <v>43897322706</v>
     <v>AUTOZONE, INC.</v>
     <v>AUTOZONE, INC.</v>
-    <v>2461.15</v>
-    <v>19.462399999999999</v>
-    <v>2459.75</v>
-    <v>2460.79</v>
-    <v>2455.36</v>
-    <v>18225000</v>
+    <v>2437.64</v>
+    <v>19.295300000000001</v>
+    <v>2438.63</v>
+    <v>2417.79</v>
+    <v>18155970</v>
     <v>AZO</v>
     <v>AUTOZONE, INC. (XNYS:AZO)</v>
-    <v>214810</v>
-    <v>146826</v>
+    <v>66592</v>
+    <v>246591</v>
     <v>1991</v>
   </rv>
   <rv s="2">
@@ -2549,8 +2546,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2571,7 +2566,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2588,7 +2582,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2599,16 +2593,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2674,19 +2665,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2731,9 +2716,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2741,9 +2723,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3108,7 +3087,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AE91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK101" sqref="AK101"/>
+      <selection pane="bottomRight" activeCell="AF116" sqref="AF116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5068,15 +5047,15 @@
       </c>
       <c r="AO16" s="30">
         <f>AP101/AH3</f>
-        <v>2.7594920820096687</v>
+        <v>2.7010030442591573</v>
       </c>
       <c r="AP16" s="30">
         <f>AP101/AH28</f>
-        <v>18.458934048511608</v>
+        <v>18.067686218000958</v>
       </c>
       <c r="AQ16" s="31">
         <f>AP101/AH106</f>
-        <v>17.665388869456709</v>
+        <v>17.290960690010493</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13536,7 +13515,7 @@
       </c>
       <c r="AP95" s="39" cm="1">
         <f t="array" ref="AP95">_FV(A1,"Beta")</f>
-        <v>0.67779999999999996</v>
+        <v>0.67589999999999995</v>
       </c>
     </row>
     <row r="96" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -13757,7 +13736,7 @@
       </c>
       <c r="AP97" s="36">
         <f>(AP94)+((AP95)*(AP96-AP94))</f>
-        <v>7.0129289999999997E-2</v>
+        <v>7.0047495000000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14087,7 +14066,7 @@
       </c>
       <c r="AP100" s="34">
         <f>AP99/AP103</f>
-        <v>0.17169596349928135</v>
+        <v>0.17476419096205037</v>
       </c>
     </row>
     <row r="101" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14198,7 +14177,7 @@
       </c>
       <c r="AP101" s="40" cm="1">
         <f t="array" ref="AP101">_FV(A1,"Market cap",TRUE)</f>
-        <v>44847900000</v>
+        <v>43897322706</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14309,7 +14288,7 @@
       </c>
       <c r="AP102" s="34">
         <f>AP101/AP103</f>
-        <v>0.82830403650071871</v>
+        <v>0.82523580903794957</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14420,7 +14399,7 @@
       </c>
       <c r="AP103" s="41">
         <f>AP99+AP101</f>
-        <v>54144249000</v>
+        <v>53193671706</v>
       </c>
     </row>
     <row r="104" spans="1:42" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14675,7 +14654,7 @@
       </c>
       <c r="AP105" s="26">
         <f>(AP100*AP92)+(AP102*AP97)</f>
-        <v>6.0969329478396395E-2</v>
+        <v>6.0738139722132156E-2</v>
       </c>
     </row>
     <row r="106" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14853,7 +14832,7 @@
       <c r="AL107" s="43"/>
       <c r="AM107" s="46">
         <f>AM106*(1+AP107)/(AP108-AP107)</f>
-        <v>92427138828.514297</v>
+        <v>93025049292.352234</v>
       </c>
       <c r="AN107" s="47" t="s">
         <v>148</v>
@@ -14884,7 +14863,7 @@
       </c>
       <c r="AM108" s="46">
         <f>AM107+AM106</f>
-        <v>95670594642.434601</v>
+        <v>96268505106.272537</v>
       </c>
       <c r="AN108" s="47" t="s">
         <v>144</v>
@@ -14894,7 +14873,7 @@
       </c>
       <c r="AP108" s="51">
         <f>AP105</f>
-        <v>6.0969329478396395E-2</v>
+        <v>6.0738139722132156E-2</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14909,7 +14888,7 @@
       </c>
       <c r="AJ110" s="40">
         <f>NPV(AP108,AI108,AJ108,AK108,AL108,AM108)</f>
-        <v>81064864461.176361</v>
+        <v>81593059771.958755</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14936,7 +14915,7 @@
       </c>
       <c r="AJ113" s="40">
         <f>AJ110+AJ111-AJ112</f>
-        <v>72032895461.176361</v>
+        <v>72561090771.958755</v>
       </c>
     </row>
     <row r="114" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14954,7 +14933,7 @@
       </c>
       <c r="AJ115" s="55">
         <f>AJ113/AJ114</f>
-        <v>5155.6750008267982</v>
+        <v>5193.4799973068084</v>
       </c>
     </row>
     <row r="116" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14963,7 +14942,7 @@
       </c>
       <c r="AJ116" s="56" cm="1">
         <f t="array" ref="AJ116">_FV(A1,"Price")</f>
-        <v>2460.79</v>
+        <v>2417.79</v>
       </c>
     </row>
     <row r="117" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14972,7 +14951,7 @@
       </c>
       <c r="AJ117" s="58">
         <f>AJ115/AJ116-1</f>
-        <v>1.0951300195574585</v>
+        <v>1.1480277432311361</v>
       </c>
     </row>
     <row r="118" spans="35:36" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/AutoZone.xlsx
+++ b/Consumer/AutoZone.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A01EA88-B749-B649-8840-A58DC7DE0E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A278C0-3CB8-EE45-BB84-B798E22D7D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1053,1318 +1053,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="2400"/>
-              <a:t>AZO</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.9192052980132446E-2"/>
-          <c:y val="0.10406130268199233"/>
-          <c:w val="0.87445033112582782"/>
-          <c:h val="0.7582917652534813"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sheet 1'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Revenue</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet 1'!$B$3:$AH$3</c:f>
-              <c:numCache>
-                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>671700000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>818000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1002300000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1216800000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1508000000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1808100000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2242600000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2691400000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3242900000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4116400000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4482696000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4818185000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5325510000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5457123000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5637025000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5710882000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5948355000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6169804000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6522706000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6816824000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7362618000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8072973000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8603863000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9147530000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9475313000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>10187340000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10635676000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10888676000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11221077000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11863743000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12631967000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>14629585000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>16252230000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-967D-AB4F-BA46-EE5855614749}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AH$19</c:f>
-              <c:numCache>
-                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>46600000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>81600000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>118200000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>164500000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>226100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>276600000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>330500000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>390300000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>460700000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>516300000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>561990000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>418359000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>809403000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>942755000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1017023000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1011161000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1043060000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1097280000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1176898000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1360382000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1514124000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1693070000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1842119000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2001955000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2083340000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2224575000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2360163000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2406622000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2161576000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2593490000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2820834000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3357627000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3719000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-967D-AB4F-BA46-EE5855614749}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AH$106</c:f>
-              <c:numCache>
-                <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>18000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-5400000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>38500000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-3600000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-44700000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-78000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-114000000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-120000000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-70100000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-120900000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>263303000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>289641000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>621852000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>516013000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>453509000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>364605000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>559167000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>620720000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>677506000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>651561000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>880852000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>969934000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>845927000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1000560000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>892006000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1034544000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1078538000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1016780000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1558045000</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1632463000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2262372000</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2896776000</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2538744000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-967D-AB4F-BA46-EE5855614749}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1038801839"/>
-        <c:axId val="1038470351"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1038801839"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1038470351"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1038470351"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,###,,;\(#,###,,\);\ \-\ \-" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1038801839"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.34822224539813323"/>
-          <c:y val="0.92884837671153175"/>
-          <c:w val="0.30355550920373364"/>
-          <c:h val="4.4879045291752323E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>41274</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>1587500</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>15874</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A54809F-6475-EC53-DDA3-18517BD590EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -2486,10 +1174,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>2750</v>
-    <v>2050.21</v>
-    <v>0.67589999999999995</v>
-    <v>-20.84</v>
-    <v>-8.5459999999999998E-3</v>
+    <v>2107.66</v>
+    <v>0.65439999999999998</v>
+    <v>18.579999999999998</v>
+    <v>7.3119999999999999E-3</v>
+    <v>10.52</v>
+    <v>4.1099999999999999E-3</v>
     <v>USD</v>
     <v>AutoZone, Inc. is a retailer and distributor of automotive replacement parts and accessories in the Americas. The Company's Auto Parts Stores segment is the retailer and distributor of automotive parts and accessories through the Company's, stores in the United States, Mexico, and Brazil. Each store carries an extensive product line for cars, sport utility vehicles, vans and light trucks, including new and remanufactured automotive hard parts, maintenance items, accessories, and non-automotive products. Its other segments include ALLDATA, which produces, sells and maintains diagnostic, repair and shop management software used in the automotive repair industry and E-commerce, which includes direct sales to customers through www.autozone.com for sales that are not fulfilled by local stores. The Company has approximately 6,168 stores in the United States, 703 in Mexico, and 72 in Brazil for a total store count of 6,943.</v>
     <v>69440</v>
@@ -2497,24 +1187,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>123 S Front St, MEMPHIS, TN, 38103 US</v>
-    <v>2438.37</v>
+    <v>2566.4299999999998</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45100.774821955471</v>
+    <v>45197.988109976563</v>
     <v>0</v>
-    <v>2415.37</v>
-    <v>43897322706</v>
+    <v>2522</v>
+    <v>45704634360</v>
     <v>AUTOZONE, INC.</v>
     <v>AUTOZONE, INC.</v>
-    <v>2437.64</v>
-    <v>19.295300000000001</v>
-    <v>2438.63</v>
-    <v>2417.79</v>
-    <v>18155970</v>
+    <v>2555.9299999999998</v>
+    <v>19.337599999999998</v>
+    <v>2540.9</v>
+    <v>2559.48</v>
+    <v>2570</v>
+    <v>17857000</v>
     <v>AZO</v>
     <v>AUTOZONE, INC. (XNYS:AZO)</v>
-    <v>66592</v>
-    <v>246591</v>
+    <v>84499</v>
+    <v>139744</v>
     <v>1991</v>
   </rv>
   <rv s="2">
@@ -2546,6 +1237,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2566,6 +1259,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2582,7 +1276,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2593,13 +1287,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2665,13 +1362,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2716,6 +1419,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2723,6 +1429,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3084,10 +1793,10 @@
   <dimension ref="A1:AQ118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF116" sqref="AF116"/>
+      <selection pane="bottomRight" activeCell="AM97" sqref="AM97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5047,15 +3756,15 @@
       </c>
       <c r="AO16" s="30">
         <f>AP101/AH3</f>
-        <v>2.7010030442591573</v>
+        <v>2.8122069623676258</v>
       </c>
       <c r="AP16" s="30">
         <f>AP101/AH28</f>
-        <v>18.067686218000958</v>
+        <v>18.811557093254702</v>
       </c>
       <c r="AQ16" s="31">
         <f>AP101/AH106</f>
-        <v>17.290960690010493</v>
+        <v>18.002852733477656</v>
       </c>
     </row>
     <row r="17" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13515,7 +12224,7 @@
       </c>
       <c r="AP95" s="39" cm="1">
         <f t="array" ref="AP95">_FV(A1,"Beta")</f>
-        <v>0.67589999999999995</v>
+        <v>0.65439999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -13736,7 +12445,7 @@
       </c>
       <c r="AP97" s="36">
         <f>(AP94)+((AP95)*(AP96-AP94))</f>
-        <v>7.0047495000000001E-2</v>
+        <v>6.9121920000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14066,7 +12775,7 @@
       </c>
       <c r="AP100" s="34">
         <f>AP99/AP103</f>
-        <v>0.17476419096205037</v>
+        <v>0.16902150529113741</v>
       </c>
     </row>
     <row r="101" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14177,7 +12886,7 @@
       </c>
       <c r="AP101" s="40" cm="1">
         <f t="array" ref="AP101">_FV(A1,"Market cap",TRUE)</f>
-        <v>43897322706</v>
+        <v>45704634360</v>
       </c>
     </row>
     <row r="102" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14288,7 +12997,7 @@
       </c>
       <c r="AP102" s="34">
         <f>AP101/AP103</f>
-        <v>0.82523580903794957</v>
+        <v>0.83097849470886265</v>
       </c>
     </row>
     <row r="103" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14399,7 +13108,7 @@
       </c>
       <c r="AP103" s="41">
         <f>AP99+AP101</f>
-        <v>53193671706</v>
+        <v>55000983360</v>
       </c>
     </row>
     <row r="104" spans="1:42" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14654,7 +13363,7 @@
       </c>
       <c r="AP105" s="26">
         <f>(AP100*AP92)+(AP102*AP97)</f>
-        <v>6.0738139722132156E-2</v>
+        <v>6.0274908719586684E-2</v>
       </c>
     </row>
     <row r="106" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14832,7 +13541,7 @@
       <c r="AL107" s="43"/>
       <c r="AM107" s="46">
         <f>AM106*(1+AP107)/(AP108-AP107)</f>
-        <v>93025049292.352234</v>
+        <v>94246656616.359604</v>
       </c>
       <c r="AN107" s="47" t="s">
         <v>148</v>
@@ -14846,15 +13555,15 @@
     </row>
     <row r="108" spans="1:42" ht="19" x14ac:dyDescent="0.25">
       <c r="AI108" s="46">
-        <f t="shared" ref="AI108:AK108" si="10">AI107+AI106</f>
+        <f>AI107+AI106</f>
         <v>2666224563.4381833</v>
       </c>
       <c r="AJ108" s="46">
-        <f t="shared" si="10"/>
+        <f>AJ107+AJ106</f>
         <v>2800106439.5154185</v>
       </c>
       <c r="AK108" s="46">
-        <f t="shared" si="10"/>
+        <f>AK107+AK106</f>
         <v>2940711063.9266672</v>
       </c>
       <c r="AL108" s="46">
@@ -14863,7 +13572,7 @@
       </c>
       <c r="AM108" s="46">
         <f>AM107+AM106</f>
-        <v>96268505106.272537</v>
+        <v>97490112430.279907</v>
       </c>
       <c r="AN108" s="47" t="s">
         <v>144</v>
@@ -14873,7 +13582,7 @@
       </c>
       <c r="AP108" s="51">
         <f>AP105</f>
-        <v>6.0738139722132156E-2</v>
+        <v>6.0274908719586684E-2</v>
       </c>
     </row>
     <row r="109" spans="1:42" ht="19" x14ac:dyDescent="0.25">
@@ -14888,7 +13597,7 @@
       </c>
       <c r="AJ110" s="40">
         <f>NPV(AP108,AI108,AJ108,AK108,AL108,AM108)</f>
-        <v>81593059771.958755</v>
+        <v>82672240197.465561</v>
       </c>
     </row>
     <row r="111" spans="1:42" ht="20" x14ac:dyDescent="0.25">
@@ -14915,7 +13624,7 @@
       </c>
       <c r="AJ113" s="40">
         <f>AJ110+AJ111-AJ112</f>
-        <v>72561090771.958755</v>
+        <v>73640271197.465561</v>
       </c>
     </row>
     <row r="114" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14933,7 +13642,7 @@
       </c>
       <c r="AJ115" s="55">
         <f>AJ113/AJ114</f>
-        <v>5193.4799973068084</v>
+        <v>5270.7211453343207</v>
       </c>
     </row>
     <row r="116" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14942,7 +13651,7 @@
       </c>
       <c r="AJ116" s="56" cm="1">
         <f t="array" ref="AJ116">_FV(A1,"Price")</f>
-        <v>2417.79</v>
+        <v>2559.48</v>
       </c>
     </row>
     <row r="117" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -14951,7 +13660,7 @@
       </c>
       <c r="AJ117" s="58">
         <f>AJ115/AJ116-1</f>
-        <v>1.1480277432311361</v>
+        <v>1.0592937414374486</v>
       </c>
     </row>
     <row r="118" spans="35:36" ht="20" x14ac:dyDescent="0.25">
@@ -15043,6 +13752,5 @@
     <hyperlink ref="AI1" r:id="rId68" display="https://finbox.com/NYSE:AZO/explorer/revenue_proj" xr:uid="{78AAC5EA-D873-8C4F-AF87-5D3E1BF7F303}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId69"/>
 </worksheet>
 </file>
--- a/Consumer/AutoZone.xlsx
+++ b/Consumer/AutoZone.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F27AD7A-EEC0-5141-8220-D832D5B40B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC19D400-3059-354C-93F0-A6078A3C367E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="251">
   <si>
     <t>2011 Y</t>
   </si>
@@ -824,6 +824,9 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
   </si>
 </sst>
 </file>
@@ -836,7 +839,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -993,6 +996,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1076,7 +1085,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1121,65 +1130,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1188,23 +1140,212 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,7 +1355,29 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1222,7 +1385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1287,128 +1450,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1417,116 +1463,249 @@
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="12" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="12" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="12" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="21" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1561,13 +1740,11 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Small + Speculative"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1584,7 +1761,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8399999999999999E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1597,8 +1774,6 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1726,11 +1901,11 @@
     <v>Powered by Refinitiv</v>
     <v>2750</v>
     <v>2277.88</v>
-    <v>0.65159999999999996</v>
-    <v>14.61</v>
-    <v>5.9969999999999997E-3</v>
-    <v>9.3000000000000007</v>
-    <v>3.7950000000000002E-3</v>
+    <v>0.68440000000000001</v>
+    <v>31.82</v>
+    <v>1.2192000000000001E-2</v>
+    <v>0.25</v>
+    <v>9.4629999999999994E-5</v>
     <v>USD</v>
     <v>AutoZone, Inc. is a retailer and distributor of automotive replacement parts and accessories in the Americas. Its Auto Parts Stores segment is the retailer and distributor of automotive parts and accessories through the Company's, stores in the United States, Mexico, and Brazil. Each store carries an extensive product line for cars, sport utility vehicles, vans, and light trucks, including new and remanufactured automotive hard parts, maintenance items, accessories, and non-automotive products. Its other segments include ALLDATA, which produces, sells, and maintains diagnostic, repair and shop management software used in the automotive repair industry and E-commerce, which includes direct sales to customers through www.autozone.com for sales that are not fulfilled by local stores. It also provides a sales program that offers commercial credit and delivery of parts and other products. The Company has approximately 7,140 stores in the United States, Mexico, and Brazil.</v>
     <v>71400</v>
@@ -1738,25 +1913,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>123 S Front St, MEMPHIS, TN, 38103 US</v>
-    <v>2489.1799999999998</v>
+    <v>2644.57</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45225.998684120314</v>
+    <v>45261.996053089846</v>
     <v>0</v>
-    <v>2445.7649999999999</v>
-    <v>43337287896</v>
+    <v>2603</v>
+    <v>46583959062</v>
     <v>AUTOZONE, INC.</v>
     <v>AUTOZONE, INC.</v>
-    <v>2452.1999999999998</v>
-    <v>18.4056</v>
-    <v>2436.12</v>
-    <v>2450.73</v>
-    <v>2460.0300000000002</v>
-    <v>17683420</v>
+    <v>2616.8200000000002</v>
+    <v>19.718800000000002</v>
+    <v>2609.9299999999998</v>
+    <v>2641.75</v>
+    <v>2642</v>
+    <v>17633750</v>
     <v>AZO</v>
     <v>AUTOZONE, INC. (XNYS:AZO)</v>
-    <v>150004</v>
-    <v>129354</v>
+    <v>233808</v>
+    <v>138561</v>
     <v>1991</v>
   </rv>
   <rv s="2">
@@ -15687,7 +15862,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15695,1732 +15870,1790 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="e" vm="1">
+    <row r="1" spans="1:16" s="118" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="117" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-    </row>
-    <row r="2" spans="1:16" s="113" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+    </row>
+    <row r="2" spans="1:16" s="118" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" cm="1">
+      <c r="A3" s="50" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>43337287896</v>
-      </c>
-      <c r="B3" s="39" t="s">
+        <v>46583959062</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="52">
         <f>Financials!O8*0.01</f>
         <v>0.52510000000000001</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="52">
         <f>SUM(C11:E11)/3</f>
         <v>0.11439919747322858</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="54">
         <f>AVERAGE(Financials!K129:O129)</f>
         <v>-5.6962489832343824E-2</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="I3" s="43">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>72827704079.824081</v>
-      </c>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="55">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>73853570592.710724</v>
+      </c>
+      <c r="J3" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="57">
         <f>(Financials!O172*-1)/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="114" t="s">
+      <c r="M3" s="38"/>
+      <c r="N3" s="119" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="45"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46">
+      <c r="A4" s="59">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-2639992000</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="40">
         <f>Financials!O17*0.01</f>
         <v>0.20550000000000002</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="40">
         <f>SUM(C13:E13)/3</f>
         <v>0.13750353685981734</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="62">
         <f>A5*(1+(5*G3))</f>
-        <v>12646961.840244673</v>
-      </c>
-      <c r="H4" s="51" t="s">
+        <v>12611438.474594535</v>
+      </c>
+      <c r="H4" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="52">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>63722940004.75193</v>
-      </c>
-      <c r="J4" s="49" t="s">
+      <c r="I4" s="39">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>64628498691.349091</v>
+      </c>
+      <c r="J4" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="53" cm="1">
+      <c r="K4" s="63" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>5.9969999999999997E-3</v>
-      </c>
-      <c r="L4" s="51" t="s">
+        <v>1.2192000000000001E-2</v>
+      </c>
+      <c r="L4" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="45"/>
-      <c r="N4" s="116" t="s">
+      <c r="M4" s="38"/>
+      <c r="N4" s="121" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="117"/>
-      <c r="P4" s="45"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" cm="1">
+      <c r="A5" s="59" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>17683420</v>
-      </c>
-      <c r="B5" s="47" t="s">
+        <v>17633750</v>
+      </c>
+      <c r="B5" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="40">
         <f>Financials!O34*0.01</f>
         <v>0.15010000000000001</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="48">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="40">
+        <f>SUM(C16:E16)/3</f>
         <v>-1.1698333248574611E-2</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="62">
         <f>Financials!O56</f>
         <v>277054000</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="52">
+      <c r="I5" s="39">
         <f>I4+G5-G6</f>
-        <v>61082948004.75193</v>
-      </c>
-      <c r="J5" s="49" t="s">
+        <v>61988506691.349091</v>
+      </c>
+      <c r="J5" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="55" cm="1">
+      <c r="K5" s="66" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>2450.73</v>
-      </c>
-      <c r="L5" s="47" t="s">
+        <v>2641.75</v>
+      </c>
+      <c r="L5" s="67" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="45"/>
-      <c r="N5" s="56" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="O5" s="57">
+      <c r="O5" s="103">
         <f>Financials!O21</f>
         <v>322962000</v>
       </c>
-      <c r="P5" s="45"/>
+      <c r="P5" s="38"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58">
+      <c r="A6" s="68">
         <f>O20/F10</f>
-        <v>2.3051748880851064</v>
-      </c>
-      <c r="B6" s="47" t="s">
+        <v>2.4778701628723403</v>
+      </c>
+      <c r="B6" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="40">
         <f>Financials!O190</f>
         <v>5.8206748946430846E-2</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="40">
         <f>Financials!O33/Financials!O126</f>
         <v>-0.60618281732842227</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="60" t="s">
         <v>222</v>
       </c>
-      <c r="G6" s="52">
+      <c r="G6" s="62">
         <f>Financials!O96+Financials!O105</f>
         <v>2917046000</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="63">
         <f>N25</f>
-        <v>7.2683776989505067E-2</v>
-      </c>
-      <c r="J6" s="51" t="s">
+        <v>7.2021423231536374E-2</v>
+      </c>
+      <c r="J6" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="69">
         <f>I5/G4</f>
-        <v>4829.8515308535316</v>
-      </c>
-      <c r="L6" s="61" t="s">
+        <v>4915.2606037942123</v>
+      </c>
+      <c r="L6" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="62" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="O6" s="63">
+      <c r="O6" s="103">
         <f>Financials!O96</f>
         <v>0</v>
       </c>
-      <c r="P6" s="45"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64">
+      <c r="P6" s="38"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="71">
         <f>O20/F12</f>
-        <v>16.273859517837025</v>
-      </c>
-      <c r="B7" s="65" t="s">
+        <v>17.493037574915508</v>
+      </c>
+      <c r="B7" s="72" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="66">
-        <f>F14/A3</f>
-        <v>6.8186085088927414E-2</v>
-      </c>
-      <c r="D7" s="67" t="s">
+      <c r="C7" s="73">
+        <f>F15/A3</f>
+        <v>6.343385275749322E-2</v>
+      </c>
+      <c r="D7" s="72" t="s">
         <v>228</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="74">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>-1.8892975737831228</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="75">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>-0.67060162845347493</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="76" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I7" s="77">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="73">
+      <c r="K7" s="79">
         <f>K6/K5-1</f>
-        <v>0.97078075955063658</v>
-      </c>
-      <c r="L7" s="74" t="s">
+        <v>0.86060778037066799</v>
+      </c>
+      <c r="L7" s="80" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="45"/>
-      <c r="N7" s="62" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="102" t="s">
         <v>232</v>
       </c>
-      <c r="O7" s="63">
+      <c r="O7" s="103">
         <f>Financials!O105</f>
         <v>2917046000</v>
       </c>
-      <c r="P7" s="45"/>
+      <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="75"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="76" t="s">
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="O8" s="77">
+      <c r="O8" s="105">
         <f>O5/(O6+O7)</f>
         <v>0.11071542923903153</v>
       </c>
-      <c r="P8" s="45"/>
+      <c r="P8" s="38"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79">
+      <c r="A9" s="84"/>
+      <c r="B9" s="85">
         <v>2020</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="85">
         <v>2021</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="85">
         <v>2022</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="86">
         <v>2023</v>
       </c>
-      <c r="F9" s="80">
+      <c r="F9" s="41">
         <v>2023</v>
       </c>
-      <c r="G9" s="81">
+      <c r="G9" s="42">
         <v>2024</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="42">
         <v>2025</v>
       </c>
-      <c r="I9" s="81">
+      <c r="I9" s="42">
         <v>2026</v>
       </c>
-      <c r="J9" s="81">
+      <c r="J9" s="87">
         <v>2027</v>
       </c>
-      <c r="K9" s="82"/>
+      <c r="K9" s="83"/>
       <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="62" t="s">
+      <c r="M9" s="43"/>
+      <c r="N9" s="102" t="s">
         <v>233</v>
       </c>
-      <c r="O9" s="63">
+      <c r="O9" s="103">
         <f>Financials!O25</f>
         <v>649642000</v>
       </c>
-      <c r="P9" s="45"/>
+      <c r="P9" s="38"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="88" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="89">
         <v>12631967000</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="89">
         <v>14629585000</v>
       </c>
-      <c r="D10" s="85">
+      <c r="D10" s="89">
         <v>16252230000</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="90">
         <v>17457209000</v>
       </c>
-      <c r="F10" s="86">
+      <c r="F10" s="89">
         <v>18800000000</v>
       </c>
-      <c r="G10" s="85">
+      <c r="G10" s="89">
         <v>19500000000</v>
       </c>
-      <c r="H10" s="85">
+      <c r="H10" s="89">
         <v>20520000000</v>
       </c>
-      <c r="I10" s="85">
+      <c r="I10" s="89">
         <v>21130000000</v>
       </c>
-      <c r="J10" s="85">
+      <c r="J10" s="90">
         <v>22000000000</v>
       </c>
-      <c r="K10" s="87" t="s">
+      <c r="K10" s="91" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="62" t="s">
+      <c r="L10" s="83"/>
+      <c r="N10" s="102" t="s">
         <v>236</v>
       </c>
-      <c r="O10" s="63">
+      <c r="O10" s="103">
         <f>Financials!O24</f>
         <v>3286473000</v>
       </c>
-      <c r="P10" s="45"/>
+      <c r="P10" s="38"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="88"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89">
+      <c r="A11" s="92"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>0.15813990014381774</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11" s="44">
         <f t="shared" si="0"/>
         <v>0.11091531304544855</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11" s="44">
         <f t="shared" si="0"/>
         <v>7.4142379230419442E-2</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="45">
         <f t="shared" si="0"/>
         <v>7.6918996616240243E-2</v>
       </c>
-      <c r="G11" s="89">
+      <c r="G11" s="44">
         <f t="shared" si="0"/>
         <v>3.7234042553191404E-2</v>
       </c>
-      <c r="H11" s="89">
+      <c r="H11" s="44">
         <f t="shared" si="0"/>
         <v>5.2307692307692388E-2</v>
       </c>
-      <c r="I11" s="89">
+      <c r="I11" s="44">
         <f t="shared" si="0"/>
         <v>2.9727095516569157E-2</v>
       </c>
-      <c r="J11" s="89">
+      <c r="J11" s="93">
         <f t="shared" si="0"/>
         <v>4.1173686701372558E-2</v>
       </c>
-      <c r="K11" s="91">
+      <c r="K11" s="93">
         <f>SUM(F11:J11)/5</f>
         <v>4.747230273901315E-2</v>
       </c>
       <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="62" t="s">
+      <c r="M11" s="43"/>
+      <c r="N11" s="102" t="s">
         <v>237</v>
       </c>
-      <c r="O11" s="92">
+      <c r="O11" s="106">
         <f>O9/O10</f>
         <v>0.19767148551045452</v>
       </c>
-      <c r="P11" s="45"/>
+      <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="89">
         <v>1732972000</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="89">
         <v>2170314000</v>
       </c>
-      <c r="D12" s="85">
+      <c r="D12" s="89">
         <v>2429604000</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="89">
         <v>2528426000</v>
       </c>
-      <c r="F12" s="86">
+      <c r="F12" s="94">
         <v>2663000000</v>
       </c>
-      <c r="G12" s="85">
+      <c r="G12" s="89">
         <v>2730000000</v>
       </c>
-      <c r="H12" s="85">
+      <c r="H12" s="89">
         <v>2920000000</v>
       </c>
-      <c r="I12" s="85">
+      <c r="I12" s="89">
         <v>2950000000</v>
       </c>
-      <c r="J12" s="85">
+      <c r="J12" s="90">
         <v>2730000000</v>
       </c>
-      <c r="K12" s="87" t="s">
+      <c r="K12" s="95" t="s">
         <v>238</v>
       </c>
       <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="93" t="s">
+      <c r="M12" s="43"/>
+      <c r="N12" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="O12" s="94">
+      <c r="O12" s="106">
         <f>O8*(1-O11)</f>
         <v>8.8830145872424562E-2</v>
       </c>
-      <c r="P12" s="45"/>
+      <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="88"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89">
+      <c r="A13" s="92"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>0.25236530076654451</v>
       </c>
-      <c r="D13" s="89">
+      <c r="D13" s="44">
         <f t="shared" si="1"/>
         <v>0.11947119172617415</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13" s="44">
         <f t="shared" si="1"/>
         <v>4.067411808673338E-2</v>
       </c>
-      <c r="F13" s="90">
+      <c r="F13" s="45">
         <f t="shared" si="1"/>
         <v>5.3224417087943232E-2</v>
       </c>
-      <c r="G13" s="89">
+      <c r="G13" s="44">
         <f t="shared" si="1"/>
         <v>2.5159594442358157E-2</v>
       </c>
-      <c r="H13" s="89">
+      <c r="H13" s="44">
         <f t="shared" si="1"/>
         <v>6.9597069597069572E-2</v>
       </c>
-      <c r="I13" s="89">
+      <c r="I13" s="44">
         <f t="shared" si="1"/>
         <v>1.0273972602739656E-2</v>
       </c>
-      <c r="J13" s="89">
+      <c r="J13" s="93">
         <f t="shared" si="1"/>
         <v>-7.4576271186440724E-2</v>
       </c>
-      <c r="K13" s="91">
+      <c r="K13" s="93">
         <f>SUM(F13:J13)/5</f>
         <v>1.6735756508733979E-2</v>
       </c>
       <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="116" t="s">
+      <c r="M13" s="43"/>
+      <c r="N13" s="121" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="117"/>
-      <c r="P13" s="45"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="38"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" s="47">
+        <f>B12/B10</f>
+        <v>0.13718940209390984</v>
+      </c>
+      <c r="C14" s="47">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.14835102977972375</v>
+      </c>
+      <c r="D14" s="47">
+        <f t="shared" si="2"/>
+        <v>0.14949357718909959</v>
+      </c>
+      <c r="E14" s="47">
+        <f t="shared" si="2"/>
+        <v>0.14483563781587308</v>
+      </c>
+      <c r="F14" s="48">
+        <f t="shared" si="2"/>
+        <v>0.14164893617021276</v>
+      </c>
+      <c r="G14" s="47">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H14" s="47">
+        <f t="shared" si="2"/>
+        <v>0.14230019493177387</v>
+      </c>
+      <c r="I14" s="47">
+        <f t="shared" si="2"/>
+        <v>0.1396119261713204</v>
+      </c>
+      <c r="J14" s="49">
+        <f t="shared" si="2"/>
+        <v>0.12409090909090909</v>
+      </c>
+      <c r="K14" s="49"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="O14" s="106">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="88" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="85">
+      <c r="B15" s="89">
         <v>2419651996</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C15" s="89">
         <v>3050982376</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D15" s="89">
         <v>2689958904</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E15" s="89">
         <v>2212000000</v>
       </c>
-      <c r="F14" s="86">
+      <c r="F15" s="94">
         <v>2955000000</v>
       </c>
-      <c r="G14" s="85">
+      <c r="G15" s="89">
         <v>2946000000</v>
       </c>
-      <c r="H14" s="85">
+      <c r="H15" s="89">
         <v>3170000000</v>
       </c>
-      <c r="I14" s="85">
+      <c r="I15" s="89">
         <v>2880000000</v>
       </c>
-      <c r="J14" s="85">
+      <c r="J15" s="90">
         <v>3388000000</v>
       </c>
-      <c r="K14" s="87" t="s">
+      <c r="K15" s="95" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="62" t="s">
-        <v>242</v>
-      </c>
-      <c r="O14" s="92">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="P14" s="45"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="95"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="83"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="102" t="s">
+        <v>243</v>
+      </c>
+      <c r="O15" s="107" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>0.68440000000000001</v>
+      </c>
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="96"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.2609178431624346</v>
       </c>
-      <c r="D15" s="89">
-        <f t="shared" si="2"/>
+      <c r="D16" s="44">
+        <f t="shared" si="3"/>
         <v>-0.11833023843071844</v>
       </c>
-      <c r="E15" s="89">
-        <f t="shared" si="2"/>
+      <c r="E16" s="44">
+        <f t="shared" si="3"/>
         <v>-0.17768260447744</v>
       </c>
-      <c r="F15" s="90">
-        <f t="shared" si="2"/>
+      <c r="F16" s="45">
+        <f t="shared" si="3"/>
         <v>0.33589511754068724</v>
       </c>
-      <c r="G15" s="89">
-        <f t="shared" si="2"/>
+      <c r="G16" s="44">
+        <f t="shared" si="3"/>
         <v>-3.0456852791878042E-3</v>
       </c>
-      <c r="H15" s="89">
-        <f t="shared" si="2"/>
+      <c r="H16" s="44">
+        <f t="shared" si="3"/>
         <v>7.6035302104548563E-2</v>
       </c>
-      <c r="I15" s="89">
-        <f t="shared" si="2"/>
+      <c r="I16" s="44">
+        <f t="shared" si="3"/>
         <v>-9.148264984227128E-2</v>
       </c>
-      <c r="J15" s="89">
-        <f t="shared" si="2"/>
+      <c r="J16" s="93">
+        <f t="shared" si="3"/>
         <v>0.17638888888888893</v>
       </c>
-      <c r="K15" s="91">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="93">
+        <f>SUM(F16:J16)/5</f>
         <v>9.8758194682533135E-2</v>
       </c>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="62" t="s">
-        <v>243</v>
-      </c>
-      <c r="O15" s="96" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.65159999999999996</v>
-      </c>
-      <c r="P15" s="45"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84" t="s">
+      <c r="L16" s="83"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="102" t="s">
+        <v>244</v>
+      </c>
+      <c r="O16" s="106">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" s="47">
+        <f>B15/B10</f>
+        <v>0.19154989844416154</v>
+      </c>
+      <c r="C17" s="47">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.20854879861595527</v>
+      </c>
+      <c r="D17" s="47">
+        <f t="shared" si="4"/>
+        <v>0.1655132190474784</v>
+      </c>
+      <c r="E17" s="49">
+        <f t="shared" si="4"/>
+        <v>0.12670983087846402</v>
+      </c>
+      <c r="F17" s="47">
+        <f t="shared" si="4"/>
+        <v>0.15718085106382979</v>
+      </c>
+      <c r="G17" s="47">
+        <f t="shared" si="4"/>
+        <v>0.15107692307692308</v>
+      </c>
+      <c r="H17" s="47">
+        <f t="shared" si="4"/>
+        <v>0.15448343079922028</v>
+      </c>
+      <c r="I17" s="47">
+        <f t="shared" si="4"/>
+        <v>0.1362991008045433</v>
+      </c>
+      <c r="J17" s="49">
+        <f t="shared" si="4"/>
+        <v>0.154</v>
+      </c>
+      <c r="K17" s="49"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="O17" s="109">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>7.0968876E-2</v>
+      </c>
+      <c r="P17" s="38"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="97">
+      <c r="B18" s="98">
         <v>0.95892609815185881</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C18" s="98">
         <v>1.9008296135499387</v>
       </c>
-      <c r="D16" s="97">
+      <c r="D18" s="98">
         <v>-6.7270160096090565</v>
       </c>
-      <c r="E16" s="97">
+      <c r="E18" s="98">
         <v>-1.818399090482731</v>
       </c>
-      <c r="F16" s="98"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="62" t="s">
-        <v>244</v>
-      </c>
-      <c r="O16" s="92">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="45"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="83"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="102" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="103">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.1596960000000001E-2</v>
-      </c>
-      <c r="P17" s="45"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="101"/>
       <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="116" t="s">
+      <c r="M18" s="43"/>
+      <c r="N18" s="121" t="s">
         <v>245</v>
       </c>
-      <c r="O18" s="117"/>
-      <c r="P18" s="45"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="38"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="107" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Specialty Retailers</v>
-      </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="118" cm="1">
-        <f t="array" ref="D19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>1991</v>
-      </c>
-      <c r="E19" s="118"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="62" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="O19" s="104">
+      <c r="O19" s="110">
         <f>O6+O7</f>
         <v>2917046000</v>
       </c>
-      <c r="P19" s="45"/>
+      <c r="P19" s="38"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="107" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="102" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" s="110" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>46583959062</v>
+      </c>
+      <c r="P20" s="38"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="123" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Specialty Retailers</v>
+      </c>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1991</v>
+      </c>
+      <c r="E21" s="124"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="O21" s="110">
+        <f>O19+O20</f>
+        <v>49501005062</v>
+      </c>
+      <c r="P21" s="38"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="123" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>AutoZone, Inc. is a retailer and distributor of automotive replacement parts and accessories in the Americas. Its Auto Parts Stores segment is the retailer and distributor of automotive parts and accessories through the Company's, stores in the United States, Mexico, and Brazil. Each store carries an extensive product line for cars, sport utility vehicles, vans, and light trucks, including new and remanufactured automotive hard parts, maintenance items, accessories, and non-automotive products. Its other segments include ALLDATA, which produces, sells, and maintains diagnostic, repair and shop management software used in the automotive repair industry and E-commerce, which includes direct sales to customers through www.autozone.com for sales that are not fulfilled by local stores. It also provides a sales program that offers commercial credit and delivery of parts and other products. The Company has approximately 7,140 stores in the United States, Mexico, and Brazil.</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="62" t="s">
-        <v>200</v>
-      </c>
-      <c r="O20" s="104" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>43337287896</v>
-      </c>
-      <c r="P20" s="45"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="M21" s="83"/>
-      <c r="N21" s="62" t="s">
-        <v>246</v>
-      </c>
-      <c r="O21" s="104">
-        <f>O19+O20</f>
-        <v>46254333896</v>
-      </c>
-      <c r="P21" s="45"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="107"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
-      <c r="N22" s="76" t="s">
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="105">
+      <c r="O22" s="111">
         <f>(O19/O21)</f>
-        <v>6.3065355271547024E-2</v>
-      </c>
-      <c r="P22" s="45"/>
+        <v>5.8929025710617401E-2</v>
+      </c>
+      <c r="P22" s="38"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="107"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="102" t="s">
+      <c r="A23" s="123"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="108" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="106">
+      <c r="O23" s="112">
         <f>O20/O21</f>
-        <v>0.936934644728453</v>
-      </c>
-      <c r="P23" s="45"/>
+        <v>0.94107097428938258</v>
+      </c>
+      <c r="P23" s="38"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="107"/>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
-      <c r="N24" s="108" t="s">
+      <c r="A24" s="123"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="113" t="s">
         <v>249</v>
       </c>
-      <c r="O24" s="109"/>
-      <c r="P24" s="45"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="38"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="107"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
-      <c r="N25" s="110">
+      <c r="A25" s="123"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.2683776989505067E-2</v>
-      </c>
-      <c r="O25" s="111"/>
-      <c r="P25" s="45"/>
+        <v>7.2021423231536374E-2</v>
+      </c>
+      <c r="O25" s="116"/>
+      <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="107"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
-      <c r="N26" s="83"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="107"/>
-      <c r="B27" s="107"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="83"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="45"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="83"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
-      <c r="N29" s="83"/>
-      <c r="O29" s="45"/>
-      <c r="P29" s="45"/>
+      <c r="A29" s="123"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="83"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
-      <c r="N30" s="83"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="45"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="45"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="45"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="83"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="83"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="83"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="83"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="83"/>
-      <c r="P35" s="83"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="83"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-      <c r="N36" s="83"/>
-      <c r="O36" s="83"/>
-      <c r="P36" s="83"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="83"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="83"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-      <c r="N37" s="83"/>
-      <c r="O37" s="83"/>
-      <c r="P37" s="83"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="83"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-      <c r="N38" s="83"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="83"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="83"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-      <c r="N39" s="83"/>
-      <c r="O39" s="83"/>
-      <c r="P39" s="83"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="83"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-      <c r="N40" s="83"/>
-      <c r="O40" s="83"/>
-      <c r="P40" s="83"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="83"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="83"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-      <c r="N42" s="83"/>
-      <c r="O42" s="83"/>
-      <c r="P42" s="83"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="83"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-      <c r="N43" s="83"/>
-      <c r="O43" s="83"/>
-      <c r="P43" s="83"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="83"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-      <c r="N44" s="83"/>
-      <c r="O44" s="83"/>
-      <c r="P44" s="83"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="83"/>
-      <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="83"/>
-      <c r="N45" s="83"/>
-      <c r="O45" s="83"/>
-      <c r="P45" s="83"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="83"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="83"/>
-      <c r="N46" s="83"/>
-      <c r="O46" s="83"/>
-      <c r="P46" s="83"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="83"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
-      <c r="N47" s="83"/>
-      <c r="O47" s="83"/>
-      <c r="P47" s="83"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="83"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="83"/>
-      <c r="N48" s="83"/>
-      <c r="O48" s="83"/>
-      <c r="P48" s="83"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="83"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="83"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="83"/>
-      <c r="M49" s="83"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
-      <c r="P49" s="83"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="83"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="83"/>
-      <c r="N50" s="83"/>
-      <c r="O50" s="83"/>
-      <c r="P50" s="83"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="83"/>
-      <c r="B51" s="83"/>
-      <c r="C51" s="83"/>
-      <c r="D51" s="83"/>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="83"/>
-      <c r="N51" s="83"/>
-      <c r="O51" s="83"/>
-      <c r="P51" s="83"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="83"/>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="83"/>
-      <c r="N52" s="83"/>
-      <c r="O52" s="83"/>
-      <c r="P52" s="83"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="83"/>
-      <c r="B53" s="83"/>
-      <c r="C53" s="83"/>
-      <c r="D53" s="83"/>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="83"/>
-      <c r="L53" s="83"/>
-      <c r="M53" s="83"/>
-      <c r="N53" s="83"/>
-      <c r="O53" s="83"/>
-      <c r="P53" s="83"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="83"/>
-      <c r="B54" s="83"/>
-      <c r="C54" s="83"/>
-      <c r="D54" s="83"/>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="83"/>
-      <c r="N54" s="83"/>
-      <c r="O54" s="83"/>
-      <c r="P54" s="83"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="83"/>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="83"/>
-      <c r="L55" s="83"/>
-      <c r="M55" s="83"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="83"/>
-      <c r="P55" s="83"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="83"/>
-      <c r="B56" s="83"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="83"/>
-      <c r="M56" s="83"/>
-      <c r="N56" s="83"/>
-      <c r="O56" s="83"/>
-      <c r="P56" s="83"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="83"/>
-      <c r="B57" s="83"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="83"/>
-      <c r="M57" s="83"/>
-      <c r="N57" s="83"/>
-      <c r="O57" s="83"/>
-      <c r="P57" s="83"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="83"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="83"/>
-      <c r="N58" s="83"/>
-      <c r="O58" s="83"/>
-      <c r="P58" s="83"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="83"/>
-      <c r="B59" s="83"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="83"/>
-      <c r="N59" s="83"/>
-      <c r="O59" s="83"/>
-      <c r="P59" s="83"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="83"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
-      <c r="K60" s="83"/>
-      <c r="L60" s="83"/>
-      <c r="M60" s="83"/>
-      <c r="N60" s="83"/>
-      <c r="O60" s="83"/>
-      <c r="P60" s="83"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="83"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
-      <c r="P61" s="83"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="45"/>
-      <c r="P62" s="45"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="45"/>
-      <c r="P63" s="45"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="45"/>
-      <c r="P64" s="45"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="45"/>
-      <c r="P65" s="45"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="45"/>
-      <c r="P66" s="45"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="45"/>
-      <c r="P67" s="45"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="45"/>
-      <c r="P68" s="45"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="45"/>
-      <c r="P69" s="45"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="45"/>
-      <c r="P70" s="45"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="45"/>
-      <c r="P71" s="45"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="45"/>
-      <c r="P72" s="45"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="45"/>
-      <c r="P73" s="45"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="45"/>
-      <c r="P74" s="45"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="45"/>
-      <c r="P75" s="45"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="45"/>
-      <c r="P76" s="45"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="45"/>
-      <c r="P77" s="45"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="45"/>
-      <c r="P78" s="45"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="45"/>
-      <c r="P79" s="45"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="45"/>
-      <c r="P80" s="45"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="45"/>
-      <c r="P81" s="45"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="45"/>
-      <c r="P82" s="45"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="45"/>
-      <c r="P83" s="45"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="45"/>
-      <c r="P84" s="45"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="45"/>
-      <c r="P85" s="45"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="45"/>
-      <c r="P86" s="45"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="45"/>
-      <c r="P87" s="45"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="45"/>
-      <c r="P88" s="45"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="45"/>
-      <c r="P89" s="45"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="45"/>
-      <c r="P90" s="45"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="45"/>
-      <c r="P91" s="45"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="45"/>
-      <c r="P92" s="45"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="45"/>
-      <c r="P93" s="45"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="45"/>
-      <c r="P94" s="45"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="45"/>
-      <c r="P95" s="45"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="45"/>
-      <c r="P96" s="45"/>
+      <c r="O96" s="38"/>
+      <c r="P96" s="38"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="45"/>
-      <c r="P97" s="45"/>
+      <c r="O97" s="38"/>
+      <c r="P97" s="38"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="45"/>
-      <c r="P98" s="45"/>
+      <c r="O98" s="38"/>
+      <c r="P98" s="38"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="45"/>
-      <c r="P99" s="45"/>
+      <c r="O99" s="38"/>
+      <c r="P99" s="38"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="45"/>
-      <c r="P100" s="45"/>
+      <c r="O100" s="38"/>
+      <c r="P100" s="38"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="45"/>
-      <c r="P101" s="45"/>
+      <c r="O101" s="38"/>
+      <c r="P101" s="38"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="45"/>
-      <c r="P102" s="45"/>
+      <c r="O102" s="38"/>
+      <c r="P102" s="38"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="45"/>
-      <c r="P103" s="45"/>
+      <c r="O103" s="38"/>
+      <c r="P103" s="38"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="45"/>
-      <c r="P104" s="45"/>
+      <c r="O104" s="38"/>
+      <c r="P104" s="38"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="45"/>
-      <c r="P105" s="45"/>
+      <c r="O105" s="38"/>
+      <c r="P105" s="38"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="45"/>
-      <c r="P106" s="45"/>
+      <c r="O106" s="38"/>
+      <c r="P106" s="38"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="45"/>
-      <c r="P107" s="45"/>
+      <c r="O107" s="38"/>
+      <c r="P107" s="38"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="45"/>
-      <c r="P108" s="45"/>
+      <c r="O108" s="38"/>
+      <c r="P108" s="38"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="45"/>
-      <c r="P109" s="45"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="45"/>
-      <c r="P110" s="45"/>
+      <c r="O110" s="38"/>
+      <c r="P110" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -17428,8 +17661,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:AZO/explorer/revenue_proj" xr:uid="{AC1FEC43-EEF0-6749-9BE8-AD73FF17F8F4}"/>

--- a/Consumer/AutoZone.xlsx
+++ b/Consumer/AutoZone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC19D400-3059-354C-93F0-A6078A3C367E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B258657B-95F5-1C4F-BD05-F5E1D551BDD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1385,7 +1385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1704,7 +1704,10 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
@@ -1738,10 +1741,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1761,7 +1766,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1774,6 +1779,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1901,11 +1908,11 @@
     <v>Powered by Refinitiv</v>
     <v>2750</v>
     <v>2277.88</v>
-    <v>0.68440000000000001</v>
-    <v>31.82</v>
-    <v>1.2192000000000001E-2</v>
-    <v>0.25</v>
-    <v>9.4629999999999994E-5</v>
+    <v>0.68459999999999999</v>
+    <v>-12.21</v>
+    <v>-4.6379999999999998E-3</v>
+    <v>32.5</v>
+    <v>1.2402E-2</v>
     <v>USD</v>
     <v>AutoZone, Inc. is a retailer and distributor of automotive replacement parts and accessories in the Americas. Its Auto Parts Stores segment is the retailer and distributor of automotive parts and accessories through the Company's, stores in the United States, Mexico, and Brazil. Each store carries an extensive product line for cars, sport utility vehicles, vans, and light trucks, including new and remanufactured automotive hard parts, maintenance items, accessories, and non-automotive products. Its other segments include ALLDATA, which produces, sells, and maintains diagnostic, repair and shop management software used in the automotive repair industry and E-commerce, which includes direct sales to customers through www.autozone.com for sales that are not fulfilled by local stores. It also provides a sales program that offers commercial credit and delivery of parts and other products. The Company has approximately 7,140 stores in the United States, Mexico, and Brazil.</v>
     <v>71400</v>
@@ -1913,25 +1920,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>123 S Front St, MEMPHIS, TN, 38103 US</v>
-    <v>2644.57</v>
+    <v>2640</v>
     <v>Specialty Retailers</v>
     <v>Stock</v>
-    <v>45261.996053089846</v>
+    <v>45269.00698766172</v>
     <v>0</v>
-    <v>2603</v>
-    <v>46583959062</v>
+    <v>2610.5</v>
+    <v>45402609740</v>
     <v>AUTOZONE, INC.</v>
     <v>AUTOZONE, INC.</v>
-    <v>2616.8200000000002</v>
-    <v>19.718800000000002</v>
-    <v>2609.9299999999998</v>
-    <v>2641.75</v>
-    <v>2642</v>
-    <v>17633750</v>
+    <v>2640</v>
+    <v>19.153700000000001</v>
+    <v>2632.7</v>
+    <v>2620.4899999999998</v>
+    <v>2652.99</v>
+    <v>17326000</v>
     <v>AZO</v>
     <v>AUTOZONE, INC. (XNYS:AZO)</v>
-    <v>233808</v>
-    <v>138561</v>
+    <v>110335</v>
+    <v>153834</v>
     <v>1991</v>
   </rv>
   <rv s="2">
@@ -15862,7 +15869,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15911,7 +15918,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="50" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>46583959062</v>
+        <v>45402609740</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>200</v>
@@ -15939,7 +15946,7 @@
       </c>
       <c r="I3" s="55">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>73853570592.710724</v>
+        <v>74504868355.844925</v>
       </c>
       <c r="J3" s="56" t="s">
         <v>204</v>
@@ -15982,21 +15989,21 @@
       </c>
       <c r="G4" s="62">
         <f>A5*(1+(5*G3))</f>
-        <v>12611438.474594535</v>
+        <v>12391339.505824056</v>
       </c>
       <c r="H4" s="61" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="39">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>64628498691.349091</v>
+        <v>65203430901.571449</v>
       </c>
       <c r="J4" s="61" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="63" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.2192000000000001E-2</v>
+        <v>-4.6379999999999998E-3</v>
       </c>
       <c r="L4" s="64" t="s">
         <v>212</v>
@@ -16011,7 +16018,7 @@
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="59" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>17633750</v>
+        <v>17326000</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>214</v>
@@ -16039,14 +16046,14 @@
       </c>
       <c r="I5" s="39">
         <f>I4+G5-G6</f>
-        <v>61988506691.349091</v>
+        <v>62563438901.571449</v>
       </c>
       <c r="J5" s="61" t="s">
         <v>218</v>
       </c>
       <c r="K5" s="66" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>2641.75</v>
+        <v>2620.4899999999998</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>219</v>
@@ -16064,7 +16071,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="68">
         <f>O20/F10</f>
-        <v>2.4778701628723403</v>
+        <v>2.4150324329787236</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>221</v>
@@ -16092,14 +16099,14 @@
       </c>
       <c r="I6" s="63">
         <f>N25</f>
-        <v>7.2021423231536374E-2</v>
+        <v>7.1610376967769854E-2</v>
       </c>
       <c r="J6" s="61" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="69">
         <f>I5/G4</f>
-        <v>4915.2606037942123</v>
+        <v>5048.9649542865</v>
       </c>
       <c r="L6" s="70" t="s">
         <v>225</v>
@@ -16117,14 +16124,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="71">
         <f>O20/F12</f>
-        <v>17.493037574915508</v>
+        <v>17.049421607209915</v>
       </c>
       <c r="B7" s="72" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="73">
         <f>F15/A3</f>
-        <v>6.343385275749322E-2</v>
+        <v>6.5084364465433475E-2</v>
       </c>
       <c r="D7" s="72" t="s">
         <v>228</v>
@@ -16151,7 +16158,7 @@
       </c>
       <c r="K7" s="79">
         <f>K6/K5-1</f>
-        <v>0.86060778037066799</v>
+        <v>0.92672551861922781</v>
       </c>
       <c r="L7" s="80" t="s">
         <v>231</v>
@@ -16464,7 +16471,7 @@
       </c>
       <c r="O14" s="106">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="38"/>
     </row>
@@ -16509,7 +16516,7 @@
       </c>
       <c r="O15" s="107" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.68440000000000001</v>
+        <v>0.68459999999999999</v>
       </c>
       <c r="P15" s="38"/>
     </row>
@@ -16610,7 +16617,7 @@
       </c>
       <c r="O17" s="109">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.0968876E-2</v>
+        <v>7.0504034000000007E-2</v>
       </c>
       <c r="P17" s="38"/>
     </row>
@@ -16686,22 +16693,22 @@
       </c>
       <c r="O20" s="110" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>46583959062</v>
+        <v>45402609740</v>
       </c>
       <c r="P20" s="38"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="123" t="str" cm="1">
+      <c r="A21" s="124" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Specialty Retailers</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124" cm="1">
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="125" cm="1">
         <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1991</v>
       </c>
-      <c r="E21" s="124"/>
+      <c r="E21" s="125"/>
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="43"/>
@@ -16714,7 +16721,7 @@
       </c>
       <c r="O21" s="110">
         <f>O19+O20</f>
-        <v>49501005062</v>
+        <v>48319655740</v>
       </c>
       <c r="P21" s="38"/>
     </row>
@@ -16740,7 +16747,7 @@
       </c>
       <c r="O22" s="111">
         <f>(O19/O21)</f>
-        <v>5.8929025710617401E-2</v>
+        <v>6.0369759579748196E-2</v>
       </c>
       <c r="P22" s="38"/>
     </row>
@@ -16763,7 +16770,7 @@
       </c>
       <c r="O23" s="112">
         <f>O20/O21</f>
-        <v>0.94107097428938258</v>
+        <v>0.93963024042025178</v>
       </c>
       <c r="P23" s="38"/>
     </row>
@@ -16803,7 +16810,7 @@
       <c r="M25" s="43"/>
       <c r="N25" s="115">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.2021423231536374E-2</v>
+        <v>7.1610376967769854E-2</v>
       </c>
       <c r="O25" s="116"/>
       <c r="P25" s="38"/>
